--- a/biology/Zoologie/Invertébrés_du_Japon_sur_timbres/Invertébrés_du_Japon_sur_timbres.xlsx
+++ b/biology/Zoologie/Invertébrés_du_Japon_sur_timbres/Invertébrés_du_Japon_sur_timbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japonais ont une grande admiration  pour la nature de leur pays, et il n'est pas étonnant qu'ils aient souvent représenté les animaux qui les entourent sur leurs timbres.
 Cet article recense, identifie et classe les animaux invertébrés de la faune japonaise qui apparaissent sur les timbres du Japon et sur ceux de quelques autres pays qui ont représenté des scènes japonaises.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Cnidaires (coraux, anémones de mer, méduses)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dactylometra pacifica (méduse)
 Ryukyu, 10/8/1959, 17 c. (YT 63)
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bivalves
-?
+          <t>Bivalves</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>?
 1989, 62 y.
 Huître perlière
 1961, 10 y. (pêcheurs de perles) (SG 857)
@@ -556,9 +575,43 @@
 Pectinidae
 Peigne
 1980, 41 y.
-1989, 41 y.
-Gastéropodes
-Gastéropodes (espèces à préciser)
+1989, 41 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gastéropodes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gastéropodes (espèces à préciser)
 Espèce à préciser 1
 Ryukyu, 1959, 8 c. (YT 61)
 Ryukyu, 1960-1962, 8 c. (type de 1959 modifié) (YT 66)
@@ -594,9 +647,43 @@
 1987, 60 y.
 Clionidae
 Papillon de mer (Clione limacina)
-1996, 80 y.
-Céphalopodes (pieuvres, seiches et calmars)
-Ammonite
+1996, 80 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Céphalopodes (pieuvres, seiches et calmars)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ammonite
 1992, 62 y.
 Calmar - Japonais surume ika
 30/6/1967, 15 y. (YT 829 c)
@@ -608,62 +695,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Limules</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tachypleus tridentatus - Japonais kabutogani
 1977, 50 y.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Crustacés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Crabe
 1988, 40 y.
@@ -685,34 +776,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Odonates (demoiselles et libellules)
-Epiophlebiidae
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Odonates (demoiselles et libellules)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Epiophlebiidae
 Epiophlebia superstes - Japonais mukashitonbo
 1986, 60 y.
 Calopterygidae
@@ -729,27 +825,197 @@
 Sympetrum pedemontanum elatum - Japonais miyama-akane
 1986, 60 y.
 Rhyothemis variegata imperatrix - Japonais bekkochotonbo
-21/11/1986, 60 y.
-Mantes
-?
+21/11/1986, 60 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mantes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>?
 Mante
-1995, 700 y.
-Homoptères
-Cicadidés
+1995, 700 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Homoptères</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cicadidés
 Cigale (Euterpnosia chibensis) - Japonais hime-haru-zemi
 1977, 50 y.
 Cigale (Tibicen japonicus) - Japonais ezo-zemi
-21/11/1986, 60 y.
-Hétéroptères (punaises)
-Pentatomidés
+21/11/1986, 60 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hétéroptères (punaises)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pentatomidés
 Poecilocoris lewisi - Japonais akasujikinkamemushi
-1986, 60 y.
-Névroptères
-Ascalaphidae
+1986, 60 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Névroptères</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ascalaphidae
 Ascalaphe de Rambur (Ascalaphus ramburi) - Japonais kibanetsunotonbo
-1987, 60 y.
-Coléoptères
-Buprestidés
+1987, 60 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Buprestidés
 Chrysochroa holstii - Japonais ogasawaratamamushi
 21/11/1986, ?
 Carabidae
@@ -776,13 +1042,81 @@
 Cheirotonus jambar (Euchirinae) - Japonais yanbarutenagakogane
 ?, ?
 Polyphylla laticollis laticollis (Melolonthinae) - Japonais higekogane
-1987, 60 y.
-Diptères
-Culicidae
+1987, 60 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Culicidae
 Moustique
-Ryukyu, 1962, 3 c. (éradication du paludisme) (YT 90)
-Lépidoptères
-Bombycidae
+Ryukyu, 1962, 3 c. (éradication du paludisme) (YT 90)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bombycidae
 Ver à soie (Bombyx mori)
 3/11/1916, ?
 Saturniidae
@@ -821,39 +1155,75 @@
 Nacré
 1990, 62 y.
 Parantica sita - Japonais asagimadara
-1987, 60y.
-Hyménoptères
-Apidae
+1987, 60y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Apidae
 Abeille (Apis cerana)
 ?, 20 y.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Invertébrés_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Invert%C3%A9br%C3%A9s_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Catalogues philatéliques Michel, Scott, Stanley et Gibbon, Yvert et Tellier</t>
         </is>
